--- a/biology/Médecine/Jan_Antonides_van_der_Linden/Jan_Antonides_van_der_Linden.xlsx
+++ b/biology/Médecine/Jan_Antonides_van_der_Linden/Jan_Antonides_van_der_Linden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Antonides van der Linden, latinisé en Lindenius, né en 1609 à Enkhuizen, mort en 1664, est un médecin, botaniste et bibliothécaire néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Joannes Antonides van der Linden est né le 13 janvier 1609 à Enkhuizen. 
 Il est le fils du médecin Antonius Hendrikszoon van der Linden (1570/1-1633) et le petit-fils de Heinrich Anton Nerdenus (1546–1614, professeur à l'Université de Franeker). Il commence sa scolarité dans sa ville natale, où son père enseignait. À l'âge de dix ans il part vivre avec son oncle Hermann Antonides à Naarden, mais revient à Enkhuizen deux ans plus tard dans une école dirigée par Willem van Nieuwenhuizen. En 1625 il s'inscrit à l'Université de Leyde et poursuit ses études initiales en histoire naturelle et en philosophie auprès de Gilbert Jachaeus (1578–1628) et Franco Burgersdijk .
